--- a/parking duty cycle.xlsx
+++ b/parking duty cycle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E418DD-9891-443B-BF81-D78D44E30A5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9F0F99-DE85-40AF-8C83-5016BFCF91BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7836" xr2:uid="{976D03B0-1215-4A28-A036-C8101FB24F99}"/>
   </bookViews>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2C0BD1-AF70-4BAD-A95A-07E16DB09CD9}">
   <dimension ref="C3:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,11 +569,11 @@
         <v>7</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>59.66</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>417.62</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -583,12 +583,12 @@
       </c>
       <c r="F11" s="6">
         <f>SUM(F4:F10)</f>
-        <v>63.25688571921971</v>
+        <v>480.87688571921973</v>
       </c>
       <c r="G11" s="1"/>
       <c r="I11">
         <f>F10/F11</f>
-        <v>0</v>
+        <v>0.86845513353254633</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="D16">
         <f>D14/F11</f>
-        <v>290909.0416129799</v>
+        <v>38267.591033154349</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
@@ -624,7 +624,7 @@
       </c>
       <c r="D17" s="9">
         <f>D16*D12</f>
-        <v>2092336.2272604881</v>
+        <v>275236.08961999661</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
@@ -633,7 +633,7 @@
       </c>
       <c r="D18">
         <f>D17/3600</f>
-        <v>581.20450757235778</v>
+        <v>76.454469338887947</v>
       </c>
     </row>
   </sheetData>
